--- a/Pasta2.xlsx
+++ b/Pasta2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Johnata Passos Bezerra\DASHBOARD\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +24,99 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+  <si>
+    <t>MÊS</t>
+  </si>
+  <si>
+    <t>LUCRO</t>
+  </si>
+  <si>
+    <t>LUCRO REAL</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>CONTABILIDADE</t>
+  </si>
+  <si>
+    <t>PIX</t>
+  </si>
+  <si>
+    <t>CARTÃO</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DINHEIRO</t>
+  </si>
+  <si>
+    <t>REDES SOCIAIS</t>
+  </si>
+  <si>
+    <t>SEGUIDORES</t>
+  </si>
+  <si>
+    <t>NOVOS SEGUIDORES</t>
+  </si>
+  <si>
+    <t>STORYS/ VIZU</t>
+  </si>
+  <si>
+    <t>MANICURE</t>
+  </si>
+  <si>
+    <t>CÍLIOS</t>
+  </si>
+  <si>
+    <t>SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>MAQUIAGEM</t>
+  </si>
+  <si>
+    <t>VIZUALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +142,139 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -71,6 +285,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B5:F157" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moeda">
+  <autoFilter ref="B5:F157"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" name="LUCRO" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>+D6+E6+F6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="CARTÃO" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="PIX" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="DINHEIRO" dataDxfId="4" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="H5:K10" totalsRowShown="0">
+  <autoFilter ref="H5:K10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="MÊS"/>
+    <tableColumn id="2" name="GASTOS" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="LUCRO" dataDxfId="1"/>
+    <tableColumn id="4" name="LUCRO REAL" dataDxfId="0">
+      <calculatedColumnFormula>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:E6" totalsRowShown="0">
+  <autoFilter ref="B3:E6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="MÊS"/>
+    <tableColumn id="2" name="SEGUIDORES"/>
+    <tableColumn id="3" name="NOVOS SEGUIDORES">
+      <calculatedColumnFormula>C4-C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="STORYS/ VIZU"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="G3:I23" totalsRowShown="0">
+  <autoFilter ref="G3:I23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MÊS"/>
+    <tableColumn id="2" name="PRODUTO"/>
+    <tableColumn id="3" name="VIZUALIZAÇÃO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +608,3209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C6" s="4">
+        <f>+D6+E6+F6</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="5">
+        <f>SUM(C6:C36)</f>
+        <v>3875</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>45293</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C70" si="0">+D7+E7+F7</f>
+        <v>83</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1320</v>
+      </c>
+      <c r="J7" s="5">
+        <f>SUM(C37:C65)</f>
+        <v>6235</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>45294</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D8" s="4">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1508</v>
+      </c>
+      <c r="J8" s="5">
+        <f>SUM(C66:C96)</f>
+        <v>9455</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D9" s="4">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2150</v>
+      </c>
+      <c r="J9" s="5">
+        <f>SUM(C97:C126)</f>
+        <v>11895</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>45296</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D10" s="4">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2100</v>
+      </c>
+      <c r="J10" s="5">
+        <f>SUM(C127:C157)</f>
+        <v>15128</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
+        <v>13028</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>45297</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>45298</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D12" s="4">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>45299</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="D13" s="4">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>45300</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D14" s="4">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>45301</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="D15" s="4">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>45302</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>45303</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="D17" s="4">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>45304</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D18" s="4">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4">
+        <v>42</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>45305</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="D19" s="4">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D20" s="4">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D21" s="4">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>45308</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D22" s="4">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>45309</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="D23" s="4">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="D24" s="4">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>45311</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="D25" s="4">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>45312</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D26" s="4">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="D27" s="4">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>45314</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D28" s="4">
+        <v>42</v>
+      </c>
+      <c r="E28" s="4">
+        <v>52</v>
+      </c>
+      <c r="F28" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>45315</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4">
+        <v>53</v>
+      </c>
+      <c r="F29" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>45316</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4">
+        <v>54</v>
+      </c>
+      <c r="F30" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>45317</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4">
+        <v>55</v>
+      </c>
+      <c r="F31" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>45318</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="D32" s="4">
+        <v>46</v>
+      </c>
+      <c r="E32" s="4">
+        <v>56</v>
+      </c>
+      <c r="F32" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>45319</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D33" s="4">
+        <v>47</v>
+      </c>
+      <c r="E33" s="4">
+        <v>57</v>
+      </c>
+      <c r="F33" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="D34" s="4">
+        <v>48</v>
+      </c>
+      <c r="E34" s="4">
+        <v>58</v>
+      </c>
+      <c r="F34" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>45321</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="D35" s="4">
+        <v>49</v>
+      </c>
+      <c r="E35" s="4">
+        <v>59</v>
+      </c>
+      <c r="F35" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>45322</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="D36" s="4">
+        <v>50</v>
+      </c>
+      <c r="E36" s="4">
+        <v>60</v>
+      </c>
+      <c r="F36" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>45323</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="D37" s="4">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4">
+        <v>61</v>
+      </c>
+      <c r="F37" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>45324</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="D38" s="4">
+        <v>52</v>
+      </c>
+      <c r="E38" s="4">
+        <v>62</v>
+      </c>
+      <c r="F38" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>45325</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="D39" s="4">
+        <v>53</v>
+      </c>
+      <c r="E39" s="4">
+        <v>63</v>
+      </c>
+      <c r="F39" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>45326</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="D40" s="4">
+        <v>54</v>
+      </c>
+      <c r="E40" s="4">
+        <v>64</v>
+      </c>
+      <c r="F40" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="D41" s="4">
+        <v>55</v>
+      </c>
+      <c r="E41" s="4">
+        <v>65</v>
+      </c>
+      <c r="F41" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>45328</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="D42" s="4">
+        <v>56</v>
+      </c>
+      <c r="E42" s="4">
+        <v>66</v>
+      </c>
+      <c r="F42" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>45329</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="D43" s="4">
+        <v>57</v>
+      </c>
+      <c r="E43" s="4">
+        <v>67</v>
+      </c>
+      <c r="F43" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>45330</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="D44" s="4">
+        <v>58</v>
+      </c>
+      <c r="E44" s="4">
+        <v>68</v>
+      </c>
+      <c r="F44" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>45331</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="D45" s="4">
+        <v>59</v>
+      </c>
+      <c r="E45" s="4">
+        <v>69</v>
+      </c>
+      <c r="F45" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D46" s="4">
+        <v>60</v>
+      </c>
+      <c r="E46" s="4">
+        <v>70</v>
+      </c>
+      <c r="F46" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>45333</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="D47" s="4">
+        <v>61</v>
+      </c>
+      <c r="E47" s="4">
+        <v>71</v>
+      </c>
+      <c r="F47" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>45334</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="D48" s="4">
+        <v>62</v>
+      </c>
+      <c r="E48" s="4">
+        <v>72</v>
+      </c>
+      <c r="F48" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>45335</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="D49" s="4">
+        <v>63</v>
+      </c>
+      <c r="E49" s="4">
+        <v>73</v>
+      </c>
+      <c r="F49" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>45336</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="D50" s="4">
+        <v>64</v>
+      </c>
+      <c r="E50" s="4">
+        <v>74</v>
+      </c>
+      <c r="F50" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>45337</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="D51" s="4">
+        <v>65</v>
+      </c>
+      <c r="E51" s="4">
+        <v>75</v>
+      </c>
+      <c r="F51" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>45338</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="D52" s="4">
+        <v>66</v>
+      </c>
+      <c r="E52" s="4">
+        <v>76</v>
+      </c>
+      <c r="F52" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="D53" s="4">
+        <v>67</v>
+      </c>
+      <c r="E53" s="4">
+        <v>77</v>
+      </c>
+      <c r="F53" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="D54" s="4">
+        <v>68</v>
+      </c>
+      <c r="E54" s="4">
+        <v>78</v>
+      </c>
+      <c r="F54" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>45341</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="D55" s="4">
+        <v>69</v>
+      </c>
+      <c r="E55" s="4">
+        <v>79</v>
+      </c>
+      <c r="F55" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="D56" s="4">
+        <v>70</v>
+      </c>
+      <c r="E56" s="4">
+        <v>80</v>
+      </c>
+      <c r="F56" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>45343</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="D57" s="4">
+        <v>71</v>
+      </c>
+      <c r="E57" s="4">
+        <v>81</v>
+      </c>
+      <c r="F57" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="D58" s="4">
+        <v>72</v>
+      </c>
+      <c r="E58" s="4">
+        <v>82</v>
+      </c>
+      <c r="F58" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="D59" s="4">
+        <v>73</v>
+      </c>
+      <c r="E59" s="4">
+        <v>83</v>
+      </c>
+      <c r="F59" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>45346</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="D60" s="4">
+        <v>74</v>
+      </c>
+      <c r="E60" s="4">
+        <v>84</v>
+      </c>
+      <c r="F60" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>45347</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="D61" s="4">
+        <v>75</v>
+      </c>
+      <c r="E61" s="4">
+        <v>85</v>
+      </c>
+      <c r="F61" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>45348</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="D62" s="4">
+        <v>76</v>
+      </c>
+      <c r="E62" s="4">
+        <v>86</v>
+      </c>
+      <c r="F62" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="D63" s="4">
+        <v>77</v>
+      </c>
+      <c r="E63" s="4">
+        <v>87</v>
+      </c>
+      <c r="F63" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>45350</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="D64" s="4">
+        <v>78</v>
+      </c>
+      <c r="E64" s="4">
+        <v>88</v>
+      </c>
+      <c r="F64" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>45351</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="D65" s="4">
+        <v>79</v>
+      </c>
+      <c r="E65" s="4">
+        <v>89</v>
+      </c>
+      <c r="F65" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="D66" s="4">
+        <v>80</v>
+      </c>
+      <c r="E66" s="4">
+        <v>90</v>
+      </c>
+      <c r="F66" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>45353</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="D67" s="4">
+        <v>81</v>
+      </c>
+      <c r="E67" s="4">
+        <v>91</v>
+      </c>
+      <c r="F67" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="D68" s="4">
+        <v>82</v>
+      </c>
+      <c r="E68" s="4">
+        <v>92</v>
+      </c>
+      <c r="F68" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="D69" s="4">
+        <v>83</v>
+      </c>
+      <c r="E69" s="4">
+        <v>93</v>
+      </c>
+      <c r="F69" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="D70" s="4">
+        <v>84</v>
+      </c>
+      <c r="E70" s="4">
+        <v>94</v>
+      </c>
+      <c r="F70" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" ref="C71:C134" si="1">+D71+E71+F71</f>
+        <v>275</v>
+      </c>
+      <c r="D71" s="4">
+        <v>85</v>
+      </c>
+      <c r="E71" s="4">
+        <v>95</v>
+      </c>
+      <c r="F71" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="D72" s="4">
+        <v>86</v>
+      </c>
+      <c r="E72" s="4">
+        <v>96</v>
+      </c>
+      <c r="F72" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="D73" s="4">
+        <v>87</v>
+      </c>
+      <c r="E73" s="4">
+        <v>97</v>
+      </c>
+      <c r="F73" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>45360</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="D74" s="4">
+        <v>88</v>
+      </c>
+      <c r="E74" s="4">
+        <v>98</v>
+      </c>
+      <c r="F74" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>45361</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="D75" s="4">
+        <v>89</v>
+      </c>
+      <c r="E75" s="4">
+        <v>99</v>
+      </c>
+      <c r="F75" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="D76" s="4">
+        <v>90</v>
+      </c>
+      <c r="E76" s="4">
+        <v>100</v>
+      </c>
+      <c r="F76" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="D77" s="4">
+        <v>91</v>
+      </c>
+      <c r="E77" s="4">
+        <v>101</v>
+      </c>
+      <c r="F77" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="D78" s="4">
+        <v>92</v>
+      </c>
+      <c r="E78" s="4">
+        <v>102</v>
+      </c>
+      <c r="F78" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="D79" s="4">
+        <v>93</v>
+      </c>
+      <c r="E79" s="4">
+        <v>103</v>
+      </c>
+      <c r="F79" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="D80" s="4">
+        <v>94</v>
+      </c>
+      <c r="E80" s="4">
+        <v>104</v>
+      </c>
+      <c r="F80" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="D81" s="4">
+        <v>95</v>
+      </c>
+      <c r="E81" s="4">
+        <v>105</v>
+      </c>
+      <c r="F81" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>45368</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="D82" s="4">
+        <v>96</v>
+      </c>
+      <c r="E82" s="4">
+        <v>106</v>
+      </c>
+      <c r="F82" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="D83" s="4">
+        <v>97</v>
+      </c>
+      <c r="E83" s="4">
+        <v>107</v>
+      </c>
+      <c r="F83" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="D84" s="4">
+        <v>98</v>
+      </c>
+      <c r="E84" s="4">
+        <v>108</v>
+      </c>
+      <c r="F84" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>45371</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="D85" s="4">
+        <v>99</v>
+      </c>
+      <c r="E85" s="4">
+        <v>109</v>
+      </c>
+      <c r="F85" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="D86" s="4">
+        <v>100</v>
+      </c>
+      <c r="E86" s="4">
+        <v>110</v>
+      </c>
+      <c r="F86" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="D87" s="4">
+        <v>101</v>
+      </c>
+      <c r="E87" s="4">
+        <v>111</v>
+      </c>
+      <c r="F87" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>45374</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="D88" s="4">
+        <v>102</v>
+      </c>
+      <c r="E88" s="4">
+        <v>112</v>
+      </c>
+      <c r="F88" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>45375</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="D89" s="4">
+        <v>103</v>
+      </c>
+      <c r="E89" s="4">
+        <v>113</v>
+      </c>
+      <c r="F89" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>45376</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="D90" s="4">
+        <v>104</v>
+      </c>
+      <c r="E90" s="4">
+        <v>114</v>
+      </c>
+      <c r="F90" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>45377</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="D91" s="4">
+        <v>105</v>
+      </c>
+      <c r="E91" s="4">
+        <v>115</v>
+      </c>
+      <c r="F91" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>45378</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="D92" s="4">
+        <v>106</v>
+      </c>
+      <c r="E92" s="4">
+        <v>116</v>
+      </c>
+      <c r="F92" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>45379</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+      <c r="D93" s="4">
+        <v>107</v>
+      </c>
+      <c r="E93" s="4">
+        <v>117</v>
+      </c>
+      <c r="F93" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>45380</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="D94" s="4">
+        <v>108</v>
+      </c>
+      <c r="E94" s="4">
+        <v>118</v>
+      </c>
+      <c r="F94" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>45381</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="D95" s="4">
+        <v>109</v>
+      </c>
+      <c r="E95" s="4">
+        <v>119</v>
+      </c>
+      <c r="F95" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="D96" s="4">
+        <v>110</v>
+      </c>
+      <c r="E96" s="4">
+        <v>120</v>
+      </c>
+      <c r="F96" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>45383</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="D97" s="4">
+        <v>111</v>
+      </c>
+      <c r="E97" s="4">
+        <v>121</v>
+      </c>
+      <c r="F97" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>45384</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="D98" s="4">
+        <v>112</v>
+      </c>
+      <c r="E98" s="4">
+        <v>122</v>
+      </c>
+      <c r="F98" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>45385</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="D99" s="4">
+        <v>113</v>
+      </c>
+      <c r="E99" s="4">
+        <v>123</v>
+      </c>
+      <c r="F99" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>45386</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="D100" s="4">
+        <v>114</v>
+      </c>
+      <c r="E100" s="4">
+        <v>124</v>
+      </c>
+      <c r="F100" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>45387</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="D101" s="4">
+        <v>115</v>
+      </c>
+      <c r="E101" s="4">
+        <v>125</v>
+      </c>
+      <c r="F101" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>45388</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="D102" s="4">
+        <v>116</v>
+      </c>
+      <c r="E102" s="4">
+        <v>126</v>
+      </c>
+      <c r="F102" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>45389</v>
+      </c>
+      <c r="C103" s="4">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="D103" s="4">
+        <v>117</v>
+      </c>
+      <c r="E103" s="4">
+        <v>127</v>
+      </c>
+      <c r="F103" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>45390</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="1"/>
+        <v>374</v>
+      </c>
+      <c r="D104" s="4">
+        <v>118</v>
+      </c>
+      <c r="E104" s="4">
+        <v>128</v>
+      </c>
+      <c r="F104" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>45391</v>
+      </c>
+      <c r="C105" s="4">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="D105" s="4">
+        <v>119</v>
+      </c>
+      <c r="E105" s="4">
+        <v>129</v>
+      </c>
+      <c r="F105" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>45392</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="D106" s="4">
+        <v>120</v>
+      </c>
+      <c r="E106" s="4">
+        <v>130</v>
+      </c>
+      <c r="F106" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>45393</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="D107" s="4">
+        <v>121</v>
+      </c>
+      <c r="E107" s="4">
+        <v>131</v>
+      </c>
+      <c r="F107" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>45394</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+      <c r="D108" s="4">
+        <v>122</v>
+      </c>
+      <c r="E108" s="4">
+        <v>132</v>
+      </c>
+      <c r="F108" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>45395</v>
+      </c>
+      <c r="C109" s="4">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="D109" s="4">
+        <v>123</v>
+      </c>
+      <c r="E109" s="4">
+        <v>133</v>
+      </c>
+      <c r="F109" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>45396</v>
+      </c>
+      <c r="C110" s="4">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="D110" s="4">
+        <v>124</v>
+      </c>
+      <c r="E110" s="4">
+        <v>134</v>
+      </c>
+      <c r="F110" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>45397</v>
+      </c>
+      <c r="C111" s="4">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+      <c r="D111" s="4">
+        <v>125</v>
+      </c>
+      <c r="E111" s="4">
+        <v>135</v>
+      </c>
+      <c r="F111" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>45398</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="D112" s="4">
+        <v>126</v>
+      </c>
+      <c r="E112" s="4">
+        <v>136</v>
+      </c>
+      <c r="F112" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>45399</v>
+      </c>
+      <c r="C113" s="4">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="D113" s="4">
+        <v>127</v>
+      </c>
+      <c r="E113" s="4">
+        <v>137</v>
+      </c>
+      <c r="F113" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>45400</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="D114" s="4">
+        <v>128</v>
+      </c>
+      <c r="E114" s="4">
+        <v>138</v>
+      </c>
+      <c r="F114" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>45401</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="D115" s="4">
+        <v>129</v>
+      </c>
+      <c r="E115" s="4">
+        <v>139</v>
+      </c>
+      <c r="F115" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>45402</v>
+      </c>
+      <c r="C116" s="4">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="D116" s="4">
+        <v>130</v>
+      </c>
+      <c r="E116" s="4">
+        <v>140</v>
+      </c>
+      <c r="F116" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>45403</v>
+      </c>
+      <c r="C117" s="4">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="D117" s="4">
+        <v>131</v>
+      </c>
+      <c r="E117" s="4">
+        <v>141</v>
+      </c>
+      <c r="F117" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>45404</v>
+      </c>
+      <c r="C118" s="4">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="D118" s="4">
+        <v>132</v>
+      </c>
+      <c r="E118" s="4">
+        <v>142</v>
+      </c>
+      <c r="F118" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>45405</v>
+      </c>
+      <c r="C119" s="4">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="D119" s="4">
+        <v>133</v>
+      </c>
+      <c r="E119" s="4">
+        <v>143</v>
+      </c>
+      <c r="F119" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>45406</v>
+      </c>
+      <c r="C120" s="4">
+        <f t="shared" si="1"/>
+        <v>422</v>
+      </c>
+      <c r="D120" s="4">
+        <v>134</v>
+      </c>
+      <c r="E120" s="4">
+        <v>144</v>
+      </c>
+      <c r="F120" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>45407</v>
+      </c>
+      <c r="C121" s="4">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="D121" s="4">
+        <v>135</v>
+      </c>
+      <c r="E121" s="4">
+        <v>145</v>
+      </c>
+      <c r="F121" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>45408</v>
+      </c>
+      <c r="C122" s="4">
+        <f t="shared" si="1"/>
+        <v>428</v>
+      </c>
+      <c r="D122" s="4">
+        <v>136</v>
+      </c>
+      <c r="E122" s="4">
+        <v>146</v>
+      </c>
+      <c r="F122" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>45409</v>
+      </c>
+      <c r="C123" s="4">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+      <c r="D123" s="4">
+        <v>137</v>
+      </c>
+      <c r="E123" s="4">
+        <v>147</v>
+      </c>
+      <c r="F123" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>45410</v>
+      </c>
+      <c r="C124" s="4">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+      <c r="D124" s="4">
+        <v>138</v>
+      </c>
+      <c r="E124" s="4">
+        <v>148</v>
+      </c>
+      <c r="F124" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>45411</v>
+      </c>
+      <c r="C125" s="4">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="D125" s="4">
+        <v>139</v>
+      </c>
+      <c r="E125" s="4">
+        <v>149</v>
+      </c>
+      <c r="F125" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>45412</v>
+      </c>
+      <c r="C126" s="4">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="D126" s="4">
+        <v>140</v>
+      </c>
+      <c r="E126" s="4">
+        <v>150</v>
+      </c>
+      <c r="F126" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C127" s="4">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="D127" s="4">
+        <v>141</v>
+      </c>
+      <c r="E127" s="4">
+        <v>151</v>
+      </c>
+      <c r="F127" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>45414</v>
+      </c>
+      <c r="C128" s="4">
+        <f t="shared" si="1"/>
+        <v>446</v>
+      </c>
+      <c r="D128" s="4">
+        <v>142</v>
+      </c>
+      <c r="E128" s="4">
+        <v>152</v>
+      </c>
+      <c r="F128" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>45415</v>
+      </c>
+      <c r="C129" s="4">
+        <f t="shared" si="1"/>
+        <v>449</v>
+      </c>
+      <c r="D129" s="4">
+        <v>143</v>
+      </c>
+      <c r="E129" s="4">
+        <v>153</v>
+      </c>
+      <c r="F129" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>45416</v>
+      </c>
+      <c r="C130" s="4">
+        <f t="shared" si="1"/>
+        <v>452</v>
+      </c>
+      <c r="D130" s="4">
+        <v>144</v>
+      </c>
+      <c r="E130" s="4">
+        <v>154</v>
+      </c>
+      <c r="F130" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>45417</v>
+      </c>
+      <c r="C131" s="4">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="D131" s="4">
+        <v>145</v>
+      </c>
+      <c r="E131" s="4">
+        <v>155</v>
+      </c>
+      <c r="F131" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>45418</v>
+      </c>
+      <c r="C132" s="4">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="D132" s="4">
+        <v>146</v>
+      </c>
+      <c r="E132" s="4">
+        <v>156</v>
+      </c>
+      <c r="F132" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>45419</v>
+      </c>
+      <c r="C133" s="4">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="D133" s="4">
+        <v>147</v>
+      </c>
+      <c r="E133" s="4">
+        <v>157</v>
+      </c>
+      <c r="F133" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>45420</v>
+      </c>
+      <c r="C134" s="4">
+        <f t="shared" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="D134" s="4">
+        <v>148</v>
+      </c>
+      <c r="E134" s="4">
+        <v>158</v>
+      </c>
+      <c r="F134" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>45421</v>
+      </c>
+      <c r="C135" s="4">
+        <f t="shared" ref="C135:C157" si="2">+D135+E135+F135</f>
+        <v>467</v>
+      </c>
+      <c r="D135" s="4">
+        <v>149</v>
+      </c>
+      <c r="E135" s="4">
+        <v>159</v>
+      </c>
+      <c r="F135" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>45422</v>
+      </c>
+      <c r="C136" s="4">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="D136" s="4">
+        <v>150</v>
+      </c>
+      <c r="E136" s="4">
+        <v>160</v>
+      </c>
+      <c r="F136" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>45423</v>
+      </c>
+      <c r="C137" s="4">
+        <f t="shared" si="2"/>
+        <v>473</v>
+      </c>
+      <c r="D137" s="4">
+        <v>151</v>
+      </c>
+      <c r="E137" s="4">
+        <v>161</v>
+      </c>
+      <c r="F137" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>45424</v>
+      </c>
+      <c r="C138" s="4">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="D138" s="4">
+        <v>152</v>
+      </c>
+      <c r="E138" s="4">
+        <v>162</v>
+      </c>
+      <c r="F138" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>45425</v>
+      </c>
+      <c r="C139" s="4">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="D139" s="4">
+        <v>153</v>
+      </c>
+      <c r="E139" s="4">
+        <v>163</v>
+      </c>
+      <c r="F139" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>45426</v>
+      </c>
+      <c r="C140" s="4">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="D140" s="4">
+        <v>154</v>
+      </c>
+      <c r="E140" s="4">
+        <v>164</v>
+      </c>
+      <c r="F140" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
+        <v>45427</v>
+      </c>
+      <c r="C141" s="4">
+        <f t="shared" si="2"/>
+        <v>485</v>
+      </c>
+      <c r="D141" s="4">
+        <v>155</v>
+      </c>
+      <c r="E141" s="4">
+        <v>165</v>
+      </c>
+      <c r="F141" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>45428</v>
+      </c>
+      <c r="C142" s="4">
+        <f t="shared" si="2"/>
+        <v>488</v>
+      </c>
+      <c r="D142" s="4">
+        <v>156</v>
+      </c>
+      <c r="E142" s="4">
+        <v>166</v>
+      </c>
+      <c r="F142" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="3">
+        <v>45429</v>
+      </c>
+      <c r="C143" s="4">
+        <f t="shared" si="2"/>
+        <v>491</v>
+      </c>
+      <c r="D143" s="4">
+        <v>157</v>
+      </c>
+      <c r="E143" s="4">
+        <v>167</v>
+      </c>
+      <c r="F143" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="3">
+        <v>45430</v>
+      </c>
+      <c r="C144" s="4">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+      <c r="D144" s="4">
+        <v>158</v>
+      </c>
+      <c r="E144" s="4">
+        <v>168</v>
+      </c>
+      <c r="F144" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="3">
+        <v>45431</v>
+      </c>
+      <c r="C145" s="4">
+        <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
+      <c r="D145" s="4">
+        <v>159</v>
+      </c>
+      <c r="E145" s="4">
+        <v>169</v>
+      </c>
+      <c r="F145" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="3">
+        <v>45432</v>
+      </c>
+      <c r="C146" s="4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D146" s="4">
+        <v>160</v>
+      </c>
+      <c r="E146" s="4">
+        <v>170</v>
+      </c>
+      <c r="F146" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="3">
+        <v>45433</v>
+      </c>
+      <c r="C147" s="4">
+        <f t="shared" si="2"/>
+        <v>503</v>
+      </c>
+      <c r="D147" s="4">
+        <v>161</v>
+      </c>
+      <c r="E147" s="4">
+        <v>171</v>
+      </c>
+      <c r="F147" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="3">
+        <v>45434</v>
+      </c>
+      <c r="C148" s="4">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="D148" s="4">
+        <v>162</v>
+      </c>
+      <c r="E148" s="4">
+        <v>172</v>
+      </c>
+      <c r="F148" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="3">
+        <v>45435</v>
+      </c>
+      <c r="C149" s="4">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+      <c r="D149" s="4">
+        <v>163</v>
+      </c>
+      <c r="E149" s="4">
+        <v>173</v>
+      </c>
+      <c r="F149" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="3">
+        <v>45436</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="D150" s="4">
+        <v>164</v>
+      </c>
+      <c r="E150" s="4">
+        <v>174</v>
+      </c>
+      <c r="F150" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="3">
+        <v>45437</v>
+      </c>
+      <c r="C151" s="4">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="D151" s="4">
+        <v>165</v>
+      </c>
+      <c r="E151" s="4">
+        <v>175</v>
+      </c>
+      <c r="F151" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="3">
+        <v>45438</v>
+      </c>
+      <c r="C152" s="4">
+        <f t="shared" si="2"/>
+        <v>518</v>
+      </c>
+      <c r="D152" s="4">
+        <v>166</v>
+      </c>
+      <c r="E152" s="4">
+        <v>176</v>
+      </c>
+      <c r="F152" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="3">
+        <v>45439</v>
+      </c>
+      <c r="C153" s="4">
+        <f t="shared" si="2"/>
+        <v>521</v>
+      </c>
+      <c r="D153" s="4">
+        <v>167</v>
+      </c>
+      <c r="E153" s="4">
+        <v>177</v>
+      </c>
+      <c r="F153" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="3">
+        <v>45440</v>
+      </c>
+      <c r="C154" s="4">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
+      <c r="D154" s="4">
+        <v>168</v>
+      </c>
+      <c r="E154" s="4">
+        <v>178</v>
+      </c>
+      <c r="F154" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="3">
+        <v>45441</v>
+      </c>
+      <c r="C155" s="4">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
+      <c r="D155" s="4">
+        <v>169</v>
+      </c>
+      <c r="E155" s="4">
+        <v>179</v>
+      </c>
+      <c r="F155" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="3">
+        <v>45442</v>
+      </c>
+      <c r="C156" s="4">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="D156" s="4">
+        <v>170</v>
+      </c>
+      <c r="E156" s="4">
+        <v>180</v>
+      </c>
+      <c r="F156" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="3">
+        <v>45443</v>
+      </c>
+      <c r="C157" s="4">
+        <f t="shared" si="2"/>
+        <v>533</v>
+      </c>
+      <c r="D157" s="4">
+        <v>171</v>
+      </c>
+      <c r="E157" s="4">
+        <v>181</v>
+      </c>
+      <c r="F157" s="4">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1765</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>1500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1790</v>
+      </c>
+      <c r="D5">
+        <f>C5-C4</f>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1432</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1850</v>
+      </c>
+      <c r="D6">
+        <f>C6-C5</f>
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>1690</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Pasta2.xlsx
+++ b/Pasta2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Johnata Passos Bezerra\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="4" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>MÊS</t>
   </si>
@@ -100,6 +101,114 @@
   </si>
   <si>
     <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>Faixa etaria</t>
+  </si>
+  <si>
+    <t>NUMERO DE CLIENTES</t>
+  </si>
+  <si>
+    <t>clientes novos</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>10-20 anos</t>
+  </si>
+  <si>
+    <t>20-30 anos</t>
+  </si>
+  <si>
+    <t>30-40 anos</t>
+  </si>
+  <si>
+    <t>50 - 60 anos</t>
+  </si>
+  <si>
+    <t>60+anos</t>
+  </si>
+  <si>
+    <t>janeiro</t>
+  </si>
+  <si>
+    <t>fevereiro</t>
+  </si>
+  <si>
+    <t>março</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>maio</t>
+  </si>
+  <si>
+    <t>junho</t>
+  </si>
+  <si>
+    <t>julho</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>setembro</t>
+  </si>
+  <si>
+    <t>outubro</t>
+  </si>
+  <si>
+    <t>novembro</t>
+  </si>
+  <si>
+    <t>dezembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>clientes / mês</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>fev</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>abr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dez</t>
   </si>
 </sst>
 </file>
@@ -151,18 +260,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -255,6 +367,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -271,9 +386,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -288,7 +400,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B5:F157" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B5:F157" totalsRowShown="0" dataDxfId="9" dataCellStyle="Moeda">
   <autoFilter ref="B5:F157"/>
   <tableColumns count="5">
     <tableColumn id="1" name="DATA" dataDxfId="8"/>
@@ -308,9 +420,9 @@
   <autoFilter ref="H5:K10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="MÊS"/>
-    <tableColumn id="2" name="GASTOS" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="LUCRO" dataDxfId="1"/>
-    <tableColumn id="4" name="LUCRO REAL" dataDxfId="0">
+    <tableColumn id="2" name="GASTOS" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="LUCRO" dataDxfId="2"/>
+    <tableColumn id="4" name="LUCRO REAL" dataDxfId="1">
       <calculatedColumnFormula>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -340,6 +452,18 @@
     <tableColumn id="1" name="MÊS"/>
     <tableColumn id="2" name="PRODUTO"/>
     <tableColumn id="3" name="VIZUALIZAÇÃO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="B3:D155" totalsRowShown="0">
+  <autoFilter ref="B3:D155"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="DATA" dataDxfId="0"/>
+    <tableColumn id="2" name="NUMERO DE CLIENTES"/>
+    <tableColumn id="3" name="clientes novos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,19 +751,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -671,2809 +795,2809 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>45292</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>+D6+E6+F6</f>
         <v>80</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>30</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1500</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>SUM(C6:C36)</f>
         <v>3875</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
         <v>2375</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>45293</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C70" si="0">+D7+E7+F7</f>
         <v>83</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>21</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1320</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>SUM(C37:C65)</f>
         <v>6235</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
         <v>4915</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>45294</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>22</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>32</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1508</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>SUM(C66:C96)</f>
         <v>9455</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
         <v>7947</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>45295</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>23</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>33</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>2150</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>SUM(C97:C126)</f>
         <v>11895</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
         <v>9745</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>45296</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>24</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>34</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>34</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f>SUM(C127:C157)</f>
         <v>15128</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <f>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</f>
         <v>13028</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>45297</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>35</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45298</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>26</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>36</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>45299</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>27</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>37</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>45300</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>28</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>38</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>45301</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>29</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>39</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>45302</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>30</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>40</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>45303</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>31</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>41</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>45304</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>32</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>42</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>42</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>45305</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>33</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>43</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>45306</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>34</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>44</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>45307</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>35</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>45</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>45308</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>36</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>46</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>45309</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>37</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>47</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>45310</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>38</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>48</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>45311</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>39</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>49</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>45312</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>40</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>50</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>45313</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>41</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>51</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>45314</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>42</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>52</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>45315</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>43</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>53</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>45316</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>44</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>54</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>45317</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>45</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>55</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>45318</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>46</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>56</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>45319</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>47</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>57</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>45320</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>48</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>58</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>45321</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>49</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>59</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>45322</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>50</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>60</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>45323</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>51</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>61</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>45324</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>52</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>62</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>45325</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>53</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>63</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>45326</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>54</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>64</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>45327</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>55</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>65</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>45328</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>56</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>66</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>45329</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>57</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>67</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>45330</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>58</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>68</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>45331</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>59</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>69</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>45332</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>60</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>70</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>45333</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>61</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>71</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>45334</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>62</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>72</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>45335</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>63</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>73</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>45336</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>64</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>74</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>45337</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>65</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>75</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>45338</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>66</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>76</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>45339</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>67</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>77</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>45340</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>68</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>78</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>45341</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>69</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>79</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>45342</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>70</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>80</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>45343</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>71</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>81</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>45344</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>72</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>82</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>45345</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>73</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>83</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>45346</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>74</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>84</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>84</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>45347</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>75</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>85</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>45348</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>76</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>86</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>45349</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>77</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>87</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>45350</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>78</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>88</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>45351</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>79</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>89</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>45352</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>80</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>90</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>45353</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>81</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>91</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>45354</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>82</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>92</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>45355</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>83</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>93</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>45356</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>84</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>94</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>45357</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <f t="shared" ref="C71:C134" si="1">+D71+E71+F71</f>
         <v>275</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>85</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>95</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>45358</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>86</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>96</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>45359</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>87</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>97</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>45360</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>88</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>98</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>45361</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>89</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>99</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>45362</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>90</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>45363</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>91</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>101</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>101</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>45364</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>92</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>102</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>102</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>45365</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>93</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>103</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>103</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>45366</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>94</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>104</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>104</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>45367</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>95</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>105</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>45368</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>96</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>106</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="3">
         <v>106</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>45369</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>97</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>107</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>45370</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>98</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>108</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>108</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>45371</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>99</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>109</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <v>109</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>45372</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>100</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>110</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>45373</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>101</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>111</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>45374</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>102</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>112</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="3">
         <v>112</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>45375</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>103</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>113</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="3">
         <v>113</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>45376</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>104</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>114</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="3">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>45377</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>105</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>115</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>115</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>45378</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>106</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>116</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>45379</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>107</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>117</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="3">
         <v>117</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>45380</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>108</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>118</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="3">
         <v>118</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>45381</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>109</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>119</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="3">
         <v>119</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>45382</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>110</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>120</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>45383</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>111</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <v>121</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>45384</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>112</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>122</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="3">
         <v>122</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>45385</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>113</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <v>123</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="3">
         <v>123</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>45386</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <f t="shared" si="1"/>
         <v>362</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>114</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <v>124</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="3">
         <v>124</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>45387</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <f t="shared" si="1"/>
         <v>365</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>115</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <v>125</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="3">
         <v>125</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>45388</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>116</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <v>126</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="3">
         <v>126</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>45389</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <f t="shared" si="1"/>
         <v>371</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>117</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <v>127</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="3">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>45390</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>118</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <v>128</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>45391</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>119</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <v>129</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="3">
         <v>129</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>45392</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>120</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>130</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>45393</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <f t="shared" si="1"/>
         <v>383</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>121</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <v>131</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="3">
         <v>131</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>45394</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <f t="shared" si="1"/>
         <v>386</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>122</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <v>132</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="3">
         <v>132</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>45395</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <f t="shared" si="1"/>
         <v>389</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>123</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <v>133</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>45396</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <f t="shared" si="1"/>
         <v>392</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>124</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <v>134</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="3">
         <v>134</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>45397</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>125</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <v>135</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="3">
         <v>135</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>45398</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <f t="shared" si="1"/>
         <v>398</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>126</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>136</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="3">
         <v>136</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>45399</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>127</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <v>137</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="3">
         <v>137</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>45400</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>128</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <v>138</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="3">
         <v>138</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>45401</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <f t="shared" si="1"/>
         <v>407</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>129</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>139</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="3">
         <v>139</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>45402</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>130</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>140</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>45403</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>131</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>141</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="3">
         <v>141</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>45404</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <f t="shared" si="1"/>
         <v>416</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>132</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>142</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="3">
         <v>142</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>45405</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>133</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>143</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="3">
         <v>143</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>45406</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <f t="shared" si="1"/>
         <v>422</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>134</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <v>144</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="3">
         <v>144</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>45407</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>135</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <v>145</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="3">
         <v>145</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>45408</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <f t="shared" si="1"/>
         <v>428</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>136</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>146</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="3">
         <v>146</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>45409</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>137</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>147</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="3">
         <v>147</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>45410</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <f t="shared" si="1"/>
         <v>434</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>138</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>148</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="3">
         <v>148</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>45411</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>139</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>149</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="3">
         <v>149</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>45412</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>140</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>150</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>45413</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>141</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>151</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>45414</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>142</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>152</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="3">
         <v>152</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>45415</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>143</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <v>153</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="3">
         <v>153</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>45416</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>144</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <v>154</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F130" s="3">
         <v>154</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>45417</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>145</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <v>155</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="3">
         <v>155</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>45418</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="3">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>146</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="3">
         <v>156</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="3">
         <v>156</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>45419</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <f t="shared" si="1"/>
         <v>461</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>147</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="3">
         <v>157</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="3">
         <v>157</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>45420</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>148</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="3">
         <v>158</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="3">
         <v>158</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>45421</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <f t="shared" ref="C135:C157" si="2">+D135+E135+F135</f>
         <v>467</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>149</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="3">
         <v>159</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="3">
         <v>159</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>45422</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <f t="shared" si="2"/>
         <v>470</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>150</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <v>160</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="3">
         <v>160</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>45423</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <f t="shared" si="2"/>
         <v>473</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>151</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="3">
         <v>161</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="3">
         <v>161</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>45424</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <f t="shared" si="2"/>
         <v>476</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>152</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <v>162</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="3">
         <v>162</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>45425</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <f t="shared" si="2"/>
         <v>479</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>153</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <v>163</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="3">
         <v>163</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>45426</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <f t="shared" si="2"/>
         <v>482</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>154</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <v>164</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="3">
         <v>164</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>45427</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <f t="shared" si="2"/>
         <v>485</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>155</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <v>165</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="3">
         <v>165</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>45428</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <f t="shared" si="2"/>
         <v>488</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>156</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="3">
         <v>166</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="3">
         <v>166</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>45429</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <f t="shared" si="2"/>
         <v>491</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>157</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <v>167</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="3">
         <v>167</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>45430</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <f t="shared" si="2"/>
         <v>494</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>158</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="3">
         <v>168</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>45431</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <f t="shared" si="2"/>
         <v>497</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>159</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="3">
         <v>169</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="3">
         <v>169</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>45432</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="3">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>160</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="3">
         <v>170</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="3">
         <v>170</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>45433</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <f t="shared" si="2"/>
         <v>503</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>161</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <v>171</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="3">
         <v>171</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>45434</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="3">
         <f t="shared" si="2"/>
         <v>506</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>162</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <v>172</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="3">
         <v>172</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>45435</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <f t="shared" si="2"/>
         <v>509</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>163</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="3">
         <v>173</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="3">
         <v>173</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>45436</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <f t="shared" si="2"/>
         <v>512</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>164</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="3">
         <v>174</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="3">
         <v>174</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>45437</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <f t="shared" si="2"/>
         <v>515</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>165</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="3">
         <v>175</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>45438</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <f t="shared" si="2"/>
         <v>518</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>166</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="3">
         <v>176</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="3">
         <v>176</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>45439</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="3">
         <f t="shared" si="2"/>
         <v>521</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>167</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="3">
         <v>177</v>
       </c>
-      <c r="F153" s="4">
+      <c r="F153" s="3">
         <v>177</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>45440</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <f t="shared" si="2"/>
         <v>524</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>168</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="3">
         <v>178</v>
       </c>
-      <c r="F154" s="4">
+      <c r="F154" s="3">
         <v>178</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>45441</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <f t="shared" si="2"/>
         <v>527</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>169</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <v>179</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F155" s="3">
         <v>179</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>45442</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>170</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <v>180</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>45443</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <f t="shared" si="2"/>
         <v>533</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>171</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <v>181</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157" s="3">
         <v>181</v>
       </c>
     </row>
@@ -3509,17 +3633,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3813,4 +3937,1840 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C5">
+        <v>201</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C7">
+        <v>203</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C8">
+        <v>204</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>45297</v>
+      </c>
+      <c r="C9">
+        <v>205</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>45298</v>
+      </c>
+      <c r="C10">
+        <v>206</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>45299</v>
+      </c>
+      <c r="C11">
+        <v>207</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C12">
+        <v>208</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>45301</v>
+      </c>
+      <c r="C13">
+        <v>209</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>45302</v>
+      </c>
+      <c r="C14">
+        <v>210</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>45303</v>
+      </c>
+      <c r="C15">
+        <v>211</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>45304</v>
+      </c>
+      <c r="C16">
+        <v>212</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>45305</v>
+      </c>
+      <c r="C17">
+        <v>213</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>45306</v>
+      </c>
+      <c r="C18">
+        <v>214</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>45307</v>
+      </c>
+      <c r="C19">
+        <v>215</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>45308</v>
+      </c>
+      <c r="C20">
+        <v>216</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>45309</v>
+      </c>
+      <c r="C21">
+        <v>217</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>45310</v>
+      </c>
+      <c r="C22">
+        <v>218</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>45311</v>
+      </c>
+      <c r="C23">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>45312</v>
+      </c>
+      <c r="C24">
+        <v>220</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>45313</v>
+      </c>
+      <c r="C25">
+        <v>221</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>45314</v>
+      </c>
+      <c r="C26">
+        <v>222</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>45315</v>
+      </c>
+      <c r="C27">
+        <v>223</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27">
+        <v>6665</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>45316</v>
+      </c>
+      <c r="C28">
+        <v>224</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>45317</v>
+      </c>
+      <c r="C29">
+        <v>225</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>45318</v>
+      </c>
+      <c r="C30">
+        <v>226</v>
+      </c>
+      <c r="D30">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>45319</v>
+      </c>
+      <c r="C31">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>45320</v>
+      </c>
+      <c r="C32">
+        <v>228</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>45321</v>
+      </c>
+      <c r="C33">
+        <v>229</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>45322</v>
+      </c>
+      <c r="C34">
+        <v>230</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C35">
+        <v>231</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C36">
+        <v>232</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C37">
+        <v>233</v>
+      </c>
+      <c r="D37">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C38">
+        <v>234</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C39">
+        <v>235</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C40">
+        <v>236</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C41">
+        <v>237</v>
+      </c>
+      <c r="D41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C42">
+        <v>238</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>45331</v>
+      </c>
+      <c r="C43">
+        <v>239</v>
+      </c>
+      <c r="D43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C44">
+        <v>240</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C45">
+        <v>241</v>
+      </c>
+      <c r="D45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C46">
+        <v>242</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C47">
+        <v>243</v>
+      </c>
+      <c r="D47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C48">
+        <v>244</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C49">
+        <v>245</v>
+      </c>
+      <c r="D49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>45338</v>
+      </c>
+      <c r="C50">
+        <v>246</v>
+      </c>
+      <c r="D50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C51">
+        <v>247</v>
+      </c>
+      <c r="D51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C52">
+        <v>248</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C53">
+        <v>249</v>
+      </c>
+      <c r="D53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C54">
+        <v>250</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>45343</v>
+      </c>
+      <c r="C55">
+        <v>251</v>
+      </c>
+      <c r="D55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C56">
+        <v>252</v>
+      </c>
+      <c r="D56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C57">
+        <v>253</v>
+      </c>
+      <c r="D57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C58">
+        <v>254</v>
+      </c>
+      <c r="D58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C59">
+        <v>255</v>
+      </c>
+      <c r="D59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>45348</v>
+      </c>
+      <c r="C60">
+        <v>256</v>
+      </c>
+      <c r="D60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C61">
+        <v>257</v>
+      </c>
+      <c r="D61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C62">
+        <v>258</v>
+      </c>
+      <c r="D62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C63">
+        <v>259</v>
+      </c>
+      <c r="D63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C64">
+        <v>260</v>
+      </c>
+      <c r="D64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>45353</v>
+      </c>
+      <c r="C65">
+        <v>261</v>
+      </c>
+      <c r="D65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>45354</v>
+      </c>
+      <c r="C66">
+        <v>262</v>
+      </c>
+      <c r="D66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>45355</v>
+      </c>
+      <c r="C67">
+        <v>263</v>
+      </c>
+      <c r="D67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>45356</v>
+      </c>
+      <c r="C68">
+        <v>264</v>
+      </c>
+      <c r="D68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>45357</v>
+      </c>
+      <c r="C69">
+        <v>265</v>
+      </c>
+      <c r="D69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>45358</v>
+      </c>
+      <c r="C70">
+        <v>266</v>
+      </c>
+      <c r="D70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>45359</v>
+      </c>
+      <c r="C71">
+        <v>267</v>
+      </c>
+      <c r="D71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>45360</v>
+      </c>
+      <c r="C72">
+        <v>268</v>
+      </c>
+      <c r="D72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>45361</v>
+      </c>
+      <c r="C73">
+        <v>269</v>
+      </c>
+      <c r="D73">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>45362</v>
+      </c>
+      <c r="C74">
+        <v>270</v>
+      </c>
+      <c r="D74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>45363</v>
+      </c>
+      <c r="C75">
+        <v>271</v>
+      </c>
+      <c r="D75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C76">
+        <v>272</v>
+      </c>
+      <c r="D76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C77">
+        <v>273</v>
+      </c>
+      <c r="D77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C78">
+        <v>274</v>
+      </c>
+      <c r="D78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C79">
+        <v>275</v>
+      </c>
+      <c r="D79">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>45368</v>
+      </c>
+      <c r="C80">
+        <v>276</v>
+      </c>
+      <c r="D80">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>45369</v>
+      </c>
+      <c r="C81">
+        <v>277</v>
+      </c>
+      <c r="D81">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>45370</v>
+      </c>
+      <c r="C82">
+        <v>278</v>
+      </c>
+      <c r="D82">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C83">
+        <v>279</v>
+      </c>
+      <c r="D83">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>45372</v>
+      </c>
+      <c r="C84">
+        <v>280</v>
+      </c>
+      <c r="D84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>45373</v>
+      </c>
+      <c r="C85">
+        <v>281</v>
+      </c>
+      <c r="D85">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>45374</v>
+      </c>
+      <c r="C86">
+        <v>282</v>
+      </c>
+      <c r="D86">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <v>45375</v>
+      </c>
+      <c r="C87">
+        <v>283</v>
+      </c>
+      <c r="D87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
+        <v>45376</v>
+      </c>
+      <c r="C88">
+        <v>284</v>
+      </c>
+      <c r="D88">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <v>45377</v>
+      </c>
+      <c r="C89">
+        <v>285</v>
+      </c>
+      <c r="D89">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <v>45378</v>
+      </c>
+      <c r="C90">
+        <v>286</v>
+      </c>
+      <c r="D90">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>45379</v>
+      </c>
+      <c r="C91">
+        <v>287</v>
+      </c>
+      <c r="D91">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
+        <v>45380</v>
+      </c>
+      <c r="C92">
+        <v>288</v>
+      </c>
+      <c r="D92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C93">
+        <v>289</v>
+      </c>
+      <c r="D93">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>45382</v>
+      </c>
+      <c r="C94">
+        <v>290</v>
+      </c>
+      <c r="D94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
+        <v>45383</v>
+      </c>
+      <c r="C95">
+        <v>291</v>
+      </c>
+      <c r="D95">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C96">
+        <v>292</v>
+      </c>
+      <c r="D96">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
+        <v>45385</v>
+      </c>
+      <c r="C97">
+        <v>293</v>
+      </c>
+      <c r="D97">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>45386</v>
+      </c>
+      <c r="C98">
+        <v>294</v>
+      </c>
+      <c r="D98">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="2">
+        <v>45387</v>
+      </c>
+      <c r="C99">
+        <v>295</v>
+      </c>
+      <c r="D99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="2">
+        <v>45388</v>
+      </c>
+      <c r="C100">
+        <v>296</v>
+      </c>
+      <c r="D100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
+        <v>45389</v>
+      </c>
+      <c r="C101">
+        <v>297</v>
+      </c>
+      <c r="D101">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="2">
+        <v>45390</v>
+      </c>
+      <c r="C102">
+        <v>298</v>
+      </c>
+      <c r="D102">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2">
+        <v>45391</v>
+      </c>
+      <c r="C103">
+        <v>299</v>
+      </c>
+      <c r="D103">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>45392</v>
+      </c>
+      <c r="C104">
+        <v>300</v>
+      </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2">
+        <v>45393</v>
+      </c>
+      <c r="C105">
+        <v>301</v>
+      </c>
+      <c r="D105">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>45394</v>
+      </c>
+      <c r="C106">
+        <v>302</v>
+      </c>
+      <c r="D106">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="2">
+        <v>45395</v>
+      </c>
+      <c r="C107">
+        <v>303</v>
+      </c>
+      <c r="D107">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2">
+        <v>45396</v>
+      </c>
+      <c r="C108">
+        <v>304</v>
+      </c>
+      <c r="D108">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C109">
+        <v>305</v>
+      </c>
+      <c r="D109">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="2">
+        <v>45398</v>
+      </c>
+      <c r="C110">
+        <v>306</v>
+      </c>
+      <c r="D110">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2">
+        <v>45399</v>
+      </c>
+      <c r="C111">
+        <v>307</v>
+      </c>
+      <c r="D111">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>45400</v>
+      </c>
+      <c r="C112">
+        <v>308</v>
+      </c>
+      <c r="D112">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>45401</v>
+      </c>
+      <c r="C113">
+        <v>309</v>
+      </c>
+      <c r="D113">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2">
+        <v>45402</v>
+      </c>
+      <c r="C114">
+        <v>310</v>
+      </c>
+      <c r="D114">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <v>45403</v>
+      </c>
+      <c r="C115">
+        <v>311</v>
+      </c>
+      <c r="D115">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>45404</v>
+      </c>
+      <c r="C116">
+        <v>312</v>
+      </c>
+      <c r="D116">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="2">
+        <v>45405</v>
+      </c>
+      <c r="C117">
+        <v>313</v>
+      </c>
+      <c r="D117">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="2">
+        <v>45406</v>
+      </c>
+      <c r="C118">
+        <v>314</v>
+      </c>
+      <c r="D118">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <v>45407</v>
+      </c>
+      <c r="C119">
+        <v>315</v>
+      </c>
+      <c r="D119">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="2">
+        <v>45408</v>
+      </c>
+      <c r="C120">
+        <v>316</v>
+      </c>
+      <c r="D120">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <v>45409</v>
+      </c>
+      <c r="C121">
+        <v>317</v>
+      </c>
+      <c r="D121">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <v>45410</v>
+      </c>
+      <c r="C122">
+        <v>318</v>
+      </c>
+      <c r="D122">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <v>45411</v>
+      </c>
+      <c r="C123">
+        <v>319</v>
+      </c>
+      <c r="D123">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="2">
+        <v>45412</v>
+      </c>
+      <c r="C124">
+        <v>320</v>
+      </c>
+      <c r="D124">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <v>45413</v>
+      </c>
+      <c r="C125">
+        <v>321</v>
+      </c>
+      <c r="D125">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <v>45414</v>
+      </c>
+      <c r="C126">
+        <v>322</v>
+      </c>
+      <c r="D126">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>45415</v>
+      </c>
+      <c r="C127">
+        <v>323</v>
+      </c>
+      <c r="D127">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="2">
+        <v>45416</v>
+      </c>
+      <c r="C128">
+        <v>324</v>
+      </c>
+      <c r="D128">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="2">
+        <v>45417</v>
+      </c>
+      <c r="C129">
+        <v>325</v>
+      </c>
+      <c r="D129">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="2">
+        <v>45418</v>
+      </c>
+      <c r="C130">
+        <v>326</v>
+      </c>
+      <c r="D130">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="2">
+        <v>45419</v>
+      </c>
+      <c r="C131">
+        <v>327</v>
+      </c>
+      <c r="D131">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>45420</v>
+      </c>
+      <c r="C132">
+        <v>328</v>
+      </c>
+      <c r="D132">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
+        <v>45421</v>
+      </c>
+      <c r="C133">
+        <v>329</v>
+      </c>
+      <c r="D133">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>45422</v>
+      </c>
+      <c r="C134">
+        <v>330</v>
+      </c>
+      <c r="D134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="2">
+        <v>45423</v>
+      </c>
+      <c r="C135">
+        <v>331</v>
+      </c>
+      <c r="D135">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C136">
+        <v>332</v>
+      </c>
+      <c r="D136">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>45425</v>
+      </c>
+      <c r="C137">
+        <v>333</v>
+      </c>
+      <c r="D137">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
+        <v>45426</v>
+      </c>
+      <c r="C138">
+        <v>334</v>
+      </c>
+      <c r="D138">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>45427</v>
+      </c>
+      <c r="C139">
+        <v>335</v>
+      </c>
+      <c r="D139">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>45428</v>
+      </c>
+      <c r="C140">
+        <v>336</v>
+      </c>
+      <c r="D140">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>45429</v>
+      </c>
+      <c r="C141">
+        <v>337</v>
+      </c>
+      <c r="D141">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <v>45430</v>
+      </c>
+      <c r="C142">
+        <v>338</v>
+      </c>
+      <c r="D142">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="2">
+        <v>45431</v>
+      </c>
+      <c r="C143">
+        <v>339</v>
+      </c>
+      <c r="D143">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
+        <v>45432</v>
+      </c>
+      <c r="C144">
+        <v>340</v>
+      </c>
+      <c r="D144">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>45433</v>
+      </c>
+      <c r="C145">
+        <v>341</v>
+      </c>
+      <c r="D145">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>45434</v>
+      </c>
+      <c r="C146">
+        <v>342</v>
+      </c>
+      <c r="D146">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>45435</v>
+      </c>
+      <c r="C147">
+        <v>343</v>
+      </c>
+      <c r="D147">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>45436</v>
+      </c>
+      <c r="C148">
+        <v>344</v>
+      </c>
+      <c r="D148">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C149">
+        <v>345</v>
+      </c>
+      <c r="D149">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>45438</v>
+      </c>
+      <c r="C150">
+        <v>346</v>
+      </c>
+      <c r="D150">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>45439</v>
+      </c>
+      <c r="C151">
+        <v>347</v>
+      </c>
+      <c r="D151">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>45440</v>
+      </c>
+      <c r="C152">
+        <v>348</v>
+      </c>
+      <c r="D152">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>45441</v>
+      </c>
+      <c r="C153">
+        <v>349</v>
+      </c>
+      <c r="D153">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="2">
+        <v>45442</v>
+      </c>
+      <c r="C154">
+        <v>350</v>
+      </c>
+      <c r="D154">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="2">
+        <v>45443</v>
+      </c>
+      <c r="C155">
+        <v>351</v>
+      </c>
+      <c r="D155">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Pasta2.xlsx
+++ b/Pasta2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Johnata Passos Bezerra\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -3943,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
